--- a/diabetes/prevalence/Texas.xlsx
+++ b/diabetes/prevalence/Texas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\compliance2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F1757-DB1B-5B46-8A5D-0487711DCCBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Texas" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Texas!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="528">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -1583,11 +1591,35 @@
   <si>
     <t>Zavala County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -2298,7 +2330,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2351,6 +2383,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2366,52 +2401,55 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2688,189 +2726,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU258"/>
+  <dimension ref="A2:CD258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="23"/>
+      <c r="BW3" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>527</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3090,8 +3154,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>1141221</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>8.3751968503937011</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>6.2472440944881908</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>11.010629921259842</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>13626199.125652235</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>851261.92018051073</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>1500330.358059512</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3311,8 +3406,39 @@
       <c r="BU5" s="11">
         <v>14.9</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>1223063</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>8.791732283464567</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>6.4488188976377963</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>11.742519685039376</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>13911513.232725807</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>897128.2942994046</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>1633562.1798396856</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -3532,8 +3658,39 @@
       <c r="BU6" s="11">
         <v>12.2</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>1402620</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>9.5480314960629951</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>6.9665354330708684</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>12.794881889763772</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>14690148.441365656</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>1023394.3963384463</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>1879587.1425037095</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3753,8 +3910,39 @@
       <c r="BU7" s="11">
         <v>14</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>1466741.7519999996</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>9.8181102362204715</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>7.1952755905511863</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>13.109842519685033</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>14939145.280615924</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>1074912.6738131372</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>1958498.4200757064</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3974,8 +4162,39 @@
       <c r="BU8" s="11">
         <v>12.1</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>1504794.2460000007</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>9.8850393700787382</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>7.268110236220469</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>13.161811023622048</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>15222946.410865074</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>1106420.5263424411</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>2003615.4388253165</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -4195,8 +4414,39 @@
       <c r="BU9" s="11">
         <v>11.5</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>1539602</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>10.301968503937001</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>7.7472440944881873</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>13.374015748031493</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>14944736.041579098</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>1157805.1804180844</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>1998711.3517025269</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4416,8 +4666,39 @@
       <c r="BU10" s="11">
         <v>11.1</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>1613307</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>10.625984251968504</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>7.9185039370078689</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>13.927165354330709</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>15182659.429418303</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>1202239.4846609847</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>2114514.0839199703</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -4637,8 +4918,39 @@
       <c r="BU11" s="11">
         <v>13</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>1682030</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>10.796062992125984</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>8.028346456692919</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>14.174409448818896</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>15580031.361680403</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>1250818.8957771142</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>2208377.4374589743</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4858,8 +5170,39 @@
       <c r="BU12" s="11">
         <v>10.6</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>1698171</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>10.699606299212604</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>7.8992125984251986</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>14.143307086614172</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>15871340.986863883</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>1253710.966773374</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>2244732.4945358192</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5079,8 +5422,39 @@
       <c r="BU13" s="11">
         <v>11.7</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>1734167</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>10.390909090909092</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>7.6205533596837993</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>13.757707509881417</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>16689271.216097984</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>1271814.8183650961</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>2296061.1194415903</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5675,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -5522,7 +5896,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -5743,7 +6117,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5964,7 +6338,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6559,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -6406,7 +6780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -6627,7 +7001,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -6848,7 +7222,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -7069,7 +7443,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -7290,7 +7664,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -7511,7 +7885,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -7732,7 +8106,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -7953,7 +8327,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -8174,7 +8548,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -8395,7 +8769,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -8616,7 +8990,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -8837,7 +9211,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -9058,7 +9432,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -9279,7 +9653,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -9500,7 +9874,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -9721,7 +10095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -9942,7 +10316,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -10163,7 +10537,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -10384,7 +10758,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -10605,7 +10979,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -10826,7 +11200,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -11047,7 +11421,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -11268,7 +11642,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -11489,7 +11863,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -11710,7 +12084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -11931,7 +12305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -12152,7 +12526,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -12373,7 +12747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -12594,7 +12968,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -12815,7 +13189,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -13036,7 +13410,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -13257,7 +13631,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -13478,7 +13852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -13699,7 +14073,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -13920,7 +14294,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -14141,7 +14515,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -14362,7 +14736,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -14583,7 +14957,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -14804,7 +15178,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -15025,7 +15399,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -15246,7 +15620,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -15467,7 +15841,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -15688,7 +16062,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -15909,7 +16283,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -16130,7 +16504,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -16351,7 +16725,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -16572,7 +16946,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -16793,7 +17167,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -17014,7 +17388,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -17235,7 +17609,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -17456,7 +17830,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -17677,7 +18051,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -17898,7 +18272,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -18119,7 +18493,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -18340,7 +18714,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -18561,7 +18935,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -18782,7 +19156,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -19003,7 +19377,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -19224,7 +19598,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -19445,7 +19819,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -19666,7 +20040,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -19887,7 +20261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -20108,7 +20482,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -20329,7 +20703,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -20550,7 +20924,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -20771,7 +21145,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -20992,7 +21366,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -21213,7 +21587,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -21434,7 +21808,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>11</v>
       </c>
@@ -21655,7 +22029,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -21876,7 +22250,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="90" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>11</v>
       </c>
@@ -22097,7 +22471,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="91" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -22318,7 +22692,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="92" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -22539,7 +22913,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="93" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
@@ -22760,7 +23134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>11</v>
       </c>
@@ -22981,7 +23355,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="95" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
@@ -23202,7 +23576,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="96" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>11</v>
       </c>
@@ -23423,7 +23797,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="97" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -23644,7 +24018,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="98" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>11</v>
       </c>
@@ -23865,7 +24239,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="99" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -24086,7 +24460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -24307,7 +24681,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="101" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>11</v>
       </c>
@@ -24528,7 +24902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
         <v>11</v>
       </c>
@@ -24749,7 +25123,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="103" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>11</v>
       </c>
@@ -24970,7 +25344,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="104" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
         <v>11</v>
       </c>
@@ -25191,7 +25565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
         <v>11</v>
       </c>
@@ -25412,7 +25786,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="106" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
         <v>11</v>
       </c>
@@ -25633,7 +26007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
@@ -25854,7 +26228,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="108" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -26075,7 +26449,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="109" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>11</v>
       </c>
@@ -26296,7 +26670,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="110" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -26517,7 +26891,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="111" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
@@ -26738,7 +27112,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="112" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
         <v>11</v>
       </c>
@@ -26959,7 +27333,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="113" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
         <v>11</v>
       </c>
@@ -27180,7 +27554,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="114" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
@@ -27401,7 +27775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
         <v>11</v>
       </c>
@@ -27622,7 +27996,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="116" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -27843,7 +28217,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="117" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
         <v>11</v>
       </c>
@@ -28064,7 +28438,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="118" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
         <v>11</v>
       </c>
@@ -28285,7 +28659,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="119" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
         <v>11</v>
       </c>
@@ -28506,7 +28880,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="120" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
         <v>11</v>
       </c>
@@ -28727,7 +29101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
         <v>11</v>
       </c>
@@ -28948,7 +29322,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="122" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
         <v>11</v>
       </c>
@@ -29169,7 +29543,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="123" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
         <v>11</v>
       </c>
@@ -29390,7 +29764,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="124" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
         <v>11</v>
       </c>
@@ -29611,7 +29985,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="125" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
         <v>11</v>
       </c>
@@ -29832,7 +30206,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="126" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
         <v>11</v>
       </c>
@@ -30053,7 +30427,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="127" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
         <v>11</v>
       </c>
@@ -30274,7 +30648,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="128" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
         <v>11</v>
       </c>
@@ -30495,7 +30869,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="129" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
         <v>11</v>
       </c>
@@ -30716,7 +31090,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="130" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
         <v>11</v>
       </c>
@@ -30937,7 +31311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
         <v>11</v>
       </c>
@@ -31158,7 +31532,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="132" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
         <v>11</v>
       </c>
@@ -31379,7 +31753,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="133" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
         <v>11</v>
       </c>
@@ -31600,7 +31974,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="134" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
         <v>11</v>
       </c>
@@ -31821,7 +32195,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="135" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>11</v>
       </c>
@@ -32042,7 +32416,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="136" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
         <v>11</v>
       </c>
@@ -32263,7 +32637,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="137" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
         <v>11</v>
       </c>
@@ -32484,7 +32858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
         <v>11</v>
       </c>
@@ -32705,7 +33079,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="139" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
         <v>11</v>
       </c>
@@ -32926,7 +33300,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="140" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
         <v>11</v>
       </c>
@@ -33147,7 +33521,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="141" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="10" t="s">
         <v>11</v>
       </c>
@@ -33368,7 +33742,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="142" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="10" t="s">
         <v>11</v>
       </c>
@@ -33589,7 +33963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
         <v>11</v>
       </c>
@@ -33810,7 +34184,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="144" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="10" t="s">
         <v>11</v>
       </c>
@@ -34031,7 +34405,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="145" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="10" t="s">
         <v>11</v>
       </c>
@@ -34252,7 +34626,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="146" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="10" t="s">
         <v>11</v>
       </c>
@@ -34473,7 +34847,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="147" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="10" t="s">
         <v>11</v>
       </c>
@@ -34694,7 +35068,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="148" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
         <v>11</v>
       </c>
@@ -34915,7 +35289,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="149" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="10" t="s">
         <v>11</v>
       </c>
@@ -35136,7 +35510,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="150" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
         <v>11</v>
       </c>
@@ -35357,7 +35731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
         <v>11</v>
       </c>
@@ -35578,7 +35952,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="152" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
         <v>11</v>
       </c>
@@ -35799,7 +36173,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="153" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
         <v>11</v>
       </c>
@@ -36020,7 +36394,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="154" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="10" t="s">
         <v>11</v>
       </c>
@@ -36241,7 +36615,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="155" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="10" t="s">
         <v>11</v>
       </c>
@@ -36462,7 +36836,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="156" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="10" t="s">
         <v>11</v>
       </c>
@@ -36683,7 +37057,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="157" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="10" t="s">
         <v>11</v>
       </c>
@@ -36904,7 +37278,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="158" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="10" t="s">
         <v>11</v>
       </c>
@@ -37125,7 +37499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
         <v>11</v>
       </c>
@@ -37346,7 +37720,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="160" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
         <v>11</v>
       </c>
@@ -37567,7 +37941,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="161" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="10" t="s">
         <v>11</v>
       </c>
@@ -37788,7 +38162,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="162" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="10" t="s">
         <v>11</v>
       </c>
@@ -38009,7 +38383,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="163" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="10" t="s">
         <v>11</v>
       </c>
@@ -38230,7 +38604,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="164" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="10" t="s">
         <v>11</v>
       </c>
@@ -38451,7 +38825,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="165" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="10" t="s">
         <v>11</v>
       </c>
@@ -38672,7 +39046,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="166" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="10" t="s">
         <v>11</v>
       </c>
@@ -38893,7 +39267,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="167" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="10" t="s">
         <v>11</v>
       </c>
@@ -39114,7 +39488,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="168" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="10" t="s">
         <v>11</v>
       </c>
@@ -39335,7 +39709,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="169" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="10" t="s">
         <v>11</v>
       </c>
@@ -39556,7 +39930,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="170" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="10" t="s">
         <v>11</v>
       </c>
@@ -39777,7 +40151,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="171" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="10" t="s">
         <v>11</v>
       </c>
@@ -39998,7 +40372,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="172" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="10" t="s">
         <v>11</v>
       </c>
@@ -40219,7 +40593,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="173" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="10" t="s">
         <v>11</v>
       </c>
@@ -40440,7 +40814,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="174" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="10" t="s">
         <v>11</v>
       </c>
@@ -40661,7 +41035,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="175" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="10" t="s">
         <v>11</v>
       </c>
@@ -40882,7 +41256,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="176" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="10" t="s">
         <v>11</v>
       </c>
@@ -41103,7 +41477,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="177" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="10" t="s">
         <v>11</v>
       </c>
@@ -41324,7 +41698,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="178" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="10" t="s">
         <v>11</v>
       </c>
@@ -41545,7 +41919,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="179" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="10" t="s">
         <v>11</v>
       </c>
@@ -41766,7 +42140,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="180" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="10" t="s">
         <v>11</v>
       </c>
@@ -41987,7 +42361,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="181" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="10" t="s">
         <v>11</v>
       </c>
@@ -42208,7 +42582,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="182" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="10" t="s">
         <v>11</v>
       </c>
@@ -42429,7 +42803,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="183" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="10" t="s">
         <v>11</v>
       </c>
@@ -42650,7 +43024,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="184" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="10" t="s">
         <v>11</v>
       </c>
@@ -42871,7 +43245,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="185" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="10" t="s">
         <v>11</v>
       </c>
@@ -43092,7 +43466,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="186" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="10" t="s">
         <v>11</v>
       </c>
@@ -43313,7 +43687,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="187" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="10" t="s">
         <v>11</v>
       </c>
@@ -43534,7 +43908,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="188" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="10" t="s">
         <v>11</v>
       </c>
@@ -43755,7 +44129,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="189" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="10" t="s">
         <v>11</v>
       </c>
@@ -43976,7 +44350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="10" t="s">
         <v>11</v>
       </c>
@@ -44197,7 +44571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="10" t="s">
         <v>11</v>
       </c>
@@ -44418,7 +44792,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="192" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="10" t="s">
         <v>11</v>
       </c>
@@ -44639,7 +45013,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="193" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="10" t="s">
         <v>11</v>
       </c>
@@ -44860,7 +45234,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="194" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="10" t="s">
         <v>11</v>
       </c>
@@ -45081,7 +45455,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="195" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="10" t="s">
         <v>11</v>
       </c>
@@ -45302,7 +45676,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="196" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="10" t="s">
         <v>11</v>
       </c>
@@ -45523,7 +45897,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="197" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="10" t="s">
         <v>11</v>
       </c>
@@ -45744,7 +46118,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="198" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="10" t="s">
         <v>11</v>
       </c>
@@ -45965,7 +46339,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="199" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="10" t="s">
         <v>11</v>
       </c>
@@ -46186,7 +46560,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="200" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="10" t="s">
         <v>11</v>
       </c>
@@ -46407,7 +46781,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="201" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="10" t="s">
         <v>11</v>
       </c>
@@ -46628,7 +47002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="10" t="s">
         <v>11</v>
       </c>
@@ -46849,7 +47223,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="203" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="10" t="s">
         <v>11</v>
       </c>
@@ -47070,7 +47444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A204" s="10" t="s">
         <v>11</v>
       </c>
@@ -47291,7 +47665,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="205" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A205" s="10" t="s">
         <v>11</v>
       </c>
@@ -47512,7 +47886,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="206" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A206" s="10" t="s">
         <v>11</v>
       </c>
@@ -47733,7 +48107,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="207" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A207" s="10" t="s">
         <v>11</v>
       </c>
@@ -47954,7 +48328,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="208" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A208" s="10" t="s">
         <v>11</v>
       </c>
@@ -48175,7 +48549,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="209" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="10" t="s">
         <v>11</v>
       </c>
@@ -48396,7 +48770,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="210" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="10" t="s">
         <v>11</v>
       </c>
@@ -48617,7 +48991,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="211" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A211" s="10" t="s">
         <v>11</v>
       </c>
@@ -48838,7 +49212,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="212" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A212" s="10" t="s">
         <v>11</v>
       </c>
@@ -49059,7 +49433,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="213" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A213" s="10" t="s">
         <v>11</v>
       </c>
@@ -49280,7 +49654,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="214" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A214" s="10" t="s">
         <v>11</v>
       </c>
@@ -49501,7 +49875,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="215" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="10" t="s">
         <v>11</v>
       </c>
@@ -49722,7 +50096,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="216" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A216" s="10" t="s">
         <v>11</v>
       </c>
@@ -49943,7 +50317,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="217" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A217" s="10" t="s">
         <v>11</v>
       </c>
@@ -50164,7 +50538,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="218" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A218" s="10" t="s">
         <v>11</v>
       </c>
@@ -50385,7 +50759,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="219" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A219" s="10" t="s">
         <v>11</v>
       </c>
@@ -50606,7 +50980,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="220" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A220" s="10" t="s">
         <v>11</v>
       </c>
@@ -50827,7 +51201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A221" s="10" t="s">
         <v>11</v>
       </c>
@@ -51048,7 +51422,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="222" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A222" s="10" t="s">
         <v>11</v>
       </c>
@@ -51269,7 +51643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A223" s="10" t="s">
         <v>11</v>
       </c>
@@ -51490,7 +51864,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="224" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A224" s="10" t="s">
         <v>11</v>
       </c>
@@ -51711,7 +52085,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="225" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A225" s="10" t="s">
         <v>11</v>
       </c>
@@ -51932,7 +52306,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="226" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A226" s="10" t="s">
         <v>11</v>
       </c>
@@ -52153,7 +52527,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="227" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="10" t="s">
         <v>11</v>
       </c>
@@ -52374,7 +52748,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="228" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="10" t="s">
         <v>11</v>
       </c>
@@ -52595,7 +52969,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="229" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="10" t="s">
         <v>11</v>
       </c>
@@ -52816,7 +53190,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="230" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="10" t="s">
         <v>11</v>
       </c>
@@ -53037,7 +53411,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="231" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="10" t="s">
         <v>11</v>
       </c>
@@ -53258,7 +53632,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="232" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="10" t="s">
         <v>11</v>
       </c>
@@ -53479,7 +53853,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="233" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="10" t="s">
         <v>11</v>
       </c>
@@ -53700,7 +54074,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="234" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="10" t="s">
         <v>11</v>
       </c>
@@ -53921,7 +54295,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="235" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="10" t="s">
         <v>11</v>
       </c>
@@ -54142,7 +54516,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="236" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="10" t="s">
         <v>11</v>
       </c>
@@ -54363,7 +54737,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="237" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="10" t="s">
         <v>11</v>
       </c>
@@ -54584,7 +54958,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="238" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="10" t="s">
         <v>11</v>
       </c>
@@ -54805,7 +55179,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="239" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A239" s="10" t="s">
         <v>11</v>
       </c>
@@ -55026,7 +55400,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="240" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A240" s="10" t="s">
         <v>11</v>
       </c>
@@ -55247,7 +55621,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="241" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A241" s="10" t="s">
         <v>11</v>
       </c>
@@ -55468,7 +55842,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="242" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="10" t="s">
         <v>11</v>
       </c>
@@ -55689,7 +56063,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="243" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A243" s="10" t="s">
         <v>11</v>
       </c>
@@ -55910,7 +56284,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="244" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A244" s="10" t="s">
         <v>11</v>
       </c>
@@ -56131,7 +56505,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="245" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="10" t="s">
         <v>11</v>
       </c>
@@ -56352,7 +56726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A246" s="10" t="s">
         <v>11</v>
       </c>
@@ -56573,7 +56947,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="247" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="10" t="s">
         <v>11</v>
       </c>
@@ -56794,7 +57168,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="248" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="10" t="s">
         <v>11</v>
       </c>
@@ -57015,7 +57389,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="249" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A249" s="10" t="s">
         <v>11</v>
       </c>
@@ -57236,7 +57610,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="250" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A250" s="10" t="s">
         <v>11</v>
       </c>
@@ -57457,7 +57831,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="251" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A251" s="10" t="s">
         <v>11</v>
       </c>
@@ -57678,7 +58052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A252" s="10" t="s">
         <v>11</v>
       </c>
@@ -57899,7 +58273,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="253" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A253" s="10" t="s">
         <v>11</v>
       </c>
@@ -58120,7 +58494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A254" s="10" t="s">
         <v>11</v>
       </c>
@@ -58341,7 +58715,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="255" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A255" s="10" t="s">
         <v>11</v>
       </c>
@@ -58562,7 +58936,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="256" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A256" s="10" t="s">
         <v>11</v>
       </c>
@@ -58783,7 +59157,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="257" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A257" s="10" t="s">
         <v>11</v>
       </c>
@@ -59004,7 +59378,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="258" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
         <v>11</v>
       </c>
